--- a/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452A860F-9959-40FA-AE02-F2DB4E5B953B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411EF54-71F4-4AFD-887D-B2FB82A44FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주민등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>880131-0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신동환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,15 +99,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -446,19 +435,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411EF54-71F4-4AFD-887D-B2FB82A44FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D139CB90-BF79-4F89-8C40-FB5300DDDBFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -24,6 +24,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>a</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5A36E2C3-E39A-43E4-9F1E-341DE87D657F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>000000-0000000</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
@@ -39,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +78,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -422,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -446,5 +477,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D139CB90-BF79-4F89-8C40-FB5300DDDBFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BFDE2-C1DD-40BF-97A0-85B60FC32363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\git\loans\src\main\resources\static\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BFDE2-C1DD-40BF-97A0-85B60FC32363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105341CA-CCBA-40D6-8F88-DE493F633855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105341CA-CCBA-40D6-8F88-DE493F633855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA6B414-3071-49F1-B701-CCAD9FC7508E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -24,38 +24,10 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>a</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5A36E2C3-E39A-43E4-9F1E-341DE87D657F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>000000-0000000</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>성명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주민등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +50,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -453,30 +418,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA6B414-3071-49F1-B701-CCAD9FC7508E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF90519A-9892-4F23-8E27-74EA3FF8EDC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,15 +95,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,12 +425,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">

--- a/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_전산설비_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF90519A-9892-4F23-8E27-74EA3FF8EDC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A57AF2-6011-42A5-8A5A-E7C269973C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>a</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{038CF7EC-BBD7-41E4-81B5-7189FA7FA556}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>000000-0000000</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>주민등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +78,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -95,7 +130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,6 +142,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,26 +459,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>